--- a/Enslaved/Wikibase/NEN/Results/Enslaved_Wiki_NEN_GPT4o_results.xlsx
+++ b/Enslaved/Wikibase/NEN/Results/Enslaved_Wiki_NEN_GPT4o_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eziol\Documents\Indp-stdy\graph-rag-iswc-2025\util-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677A1AC-E941-467F-B696-E3C5399BBEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F66A01-31A0-B440-8B95-31A155875D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2608,79 +2608,85 @@
 I scored this a -1 because the made up portions require rewriting the query to be fixed.</t>
   </si>
   <si>
-    <t>The model seems to interprete sex as gender. 
+    <t>I think going directly from ?temporalExtent to wd:recordedAt is inconsistent with the schema. Also, It does not really make sence to me how ?temporalExtent is used to get ?place.
+I am scoring this a -1 because the model seems to be using ?temporalEntent to check if an individual is enslaved.</t>
+  </si>
+  <si>
+    <t>I am scoring this a -1 because the model seems to treat the Revolutionary war era as an event and not a time period.</t>
+  </si>
+  <si>
+    <t>Assuming EnslavedBy and EnslavementEvent exist within the contolled vocabulary of their corresponding modules, I believe this query should work.</t>
+  </si>
+  <si>
+    <t>I scored this a 0 because I do not think an event has hasParticipantRoleType predicate.</t>
+  </si>
+  <si>
+    <t>I think this would work but I am unsure of the parts of the query in square braces and how they work.</t>
+  </si>
+  <si>
+    <t>The model gets the average age instead of the median age. Assuming Escaped is part of the controlled vocabulary in the ParticipationRoleType, I believe the query will only need minor edits.</t>
+  </si>
+  <si>
+    <t>This should return the appropriate results as long as DeathRole exists within the controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>I scored this -1 because in the inner select statement the model seems to try to get the ethnic group of an enslaved individual by accessing it from the hasInterAgentRelationshipType. And it seems to think the place that it was recorded at is the ethnicGroup, but the ethnicGroup is not a location.</t>
+  </si>
+  <si>
+    <t>I scored this -1 because the query does not specifically target Enslaved individuals. It seems to just get anyone who has a recorded occupation. Also, the name, hasEthnicity, and hasEconomicValue predicate does not seem to exist in the schema.</t>
+  </si>
+  <si>
+    <t>I scored this a -1 because I do not think the information about the ship that the enslaved individual were disembarked on would be accessible by going from the disembarktion event to isDirectlyBasedOn.
+The model seems to treat the enslaved individual's lifeOutcome as an event where the location of the lifeOutcomes event is the life outcome. I think this is incorrect.</t>
+  </si>
+  <si>
+    <t>hasLiteracyStatus does not exist within the schema and llm hallucinated to address</t>
+  </si>
+  <si>
+    <t>scored this a 0 
+fuzziness on location/place.</t>
+  </si>
+  <si>
+    <t>scored this a 1
+hallucinated on location but schema does not have a location or data predicate where as CQ does</t>
+  </si>
+  <si>
+    <t>hacullinated on the location to answer the CQ but it doesn’t exist in schema else a valid query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 The way the model deduces the ethnicity does not seem to align with the schema and the intention of the InterAgentRelationshipRecord module.
 I would assume temporal extent does not directly relate to the temporal extent in the way the model uses it.</t>
   </si>
   <si>
-    <t>I think going directly from ?temporalExtent to wd:recordedAt is inconsistent with the schema. Also, It does not really make sence to me how ?temporalExtent is used to get ?place.
-I am scoring this a -1 because the model seems to be using ?temporalEntent to check if an individual is enslaved.</t>
-  </si>
-  <si>
-    <t>I scored this -1 because hasLiteracyStatus does not exist within the schema.</t>
-  </si>
-  <si>
-    <t>I scored this a -1 because the query does not seem to select enslaved individual specifically.</t>
-  </si>
-  <si>
-    <t>I am scoring this a -1 because the model seems to treat the Revolutionary war era as an event and not a time period.</t>
-  </si>
-  <si>
-    <t>Assuming EnslavedBy and EnslavementEvent exist within the contolled vocabulary of their corresponding modules, I believe this query should work.</t>
-  </si>
-  <si>
-    <t>Scoring this a -1 because I think being Enslaved does not count as an occupation based on the description of the module in the Enslaved Documentation pdf.
+    <t>Scoring this a -1
 Also the model seems to try to use the event the child's nameRecord was recordedAt to access the child's name. I doubt that this would provide correct results.</t>
   </si>
   <si>
-    <t>I scored this a 0 because I do not think an event has hasParticipantRoleType predicate.</t>
-  </si>
-  <si>
-    <t>I think this would work but I am unsure of the parts of the query in square braces and how they work.</t>
-  </si>
-  <si>
-    <t>I scored this a -1 because the model seems to access the time the enslaved individual was assiciated with the specific owner incorrectly.</t>
-  </si>
-  <si>
-    <t>I do no think that the way the model find construction events would work</t>
-  </si>
-  <si>
-    <t>I scored this a 0 because wd:Ensalvement may not exist in the controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Seems to get individuals who's enslavement was recorded at the specific port.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I scored this a -1 because the schema does not have a location or data predicate. 
-Also, there is no place in the query where rebellions are targeted specifically, except for it being used in variable names. </t>
-  </si>
-  <si>
-    <t>The model does not specify in th query where it targets enslaved individuals. Relationships between non-enslaved individuals may still  be returned by the query. The model also tries to use an event's temporal extent to get the location which is believe is incorrect.</t>
-  </si>
-  <si>
-    <t>The model gets the average age instead of the median age. Assuming Escaped is part of the controlled vocabulary in the ParticipationRoleType, I believe the query will only need minor edits.</t>
-  </si>
-  <si>
-    <t>This should return the appropriate results as long as DeathRole exists within the controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>I scored this -1 because in the inner select statement the model seems to try to get the ethnic group of an enslaved individual by accessing it from the hasInterAgentRelationshipType. And it seems to think the place that it was recorded at is the ethnicGroup, but the ethnicGroup is not a location.</t>
-  </si>
-  <si>
-    <t>I scored this -1 because the query deos not return ethnic groupings for the marriages.</t>
-  </si>
-  <si>
-    <t>I scored this -1 because the query does not specifically target Enslaved individuals. It seems to just get anyone who has a recorded occupation. Also, the name, hasEthnicity, and hasEconomicValue predicate does not seem to exist in the schema.</t>
-  </si>
-  <si>
-    <t>I scored this a -1 because I do not think the information about the ship that the enslaved individual were disembarked on would be accessible by going from the disembarktion event to isDirectlyBasedOn.
-The model seems to treat the enslaved individual's lifeOutcome as an event where the location of the lifeOutcomes event is the life outcome. I think this is incorrect.</t>
-  </si>
-  <si>
-    <t>The model seems to use an event where the individual in question is participating as an Enslaved person to get the location and the time period. I don’t think this may necessarily be the place where that individual lives, so I am scoring this a -1.</t>
-  </si>
-  <si>
-    <t>The model seems to assume the Ownership details of the individual is directly tied to the agent that the enslaved individual has an inter agent relationship with. I belive this is incorrect so I am scoring this a -1</t>
+    <t xml:space="preserve"> - Fuzziness on temporal extent relationships</t>
+  </si>
+  <si>
+    <t>fuzzines on rdfs label but else looks good</t>
+  </si>
+  <si>
+    <t>scored this a 0 because of hop issues</t>
+  </si>
+  <si>
+    <t>doesn’t completely answer the CQ
+minor changes would fix it
+fuzziness on location</t>
+  </si>
+  <si>
+    <t>fuzziness on location
+but can adequately answer the CQ</t>
+  </si>
+  <si>
+    <t>fuzziness on ethnicity
+hop issues on interagentrelationshiptype
+if fixed can answer the CQ</t>
+  </si>
+  <si>
+    <t>The model seems to assume the Ownership details of the individual is directly tied to the agent that the enslaved individual has an inter agent relationship with. Else minor fixes needed</t>
   </si>
 </sst>
 </file>
@@ -3048,22 +3054,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="132.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="64.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="132.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3114,16 +3120,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3137,13 +3143,13 @@
         <v>-1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3154,16 +3160,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3174,16 +3180,16 @@
         <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3197,13 +3203,13 @@
         <v>-1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3214,16 +3220,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3237,13 +3243,13 @@
         <v>-1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3257,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3277,13 +3283,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3294,16 +3300,16 @@
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -3314,16 +3320,16 @@
         <v>50</v>
       </c>
       <c r="D13" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3337,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -3354,16 +3360,16 @@
         <v>58</v>
       </c>
       <c r="D15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -3374,16 +3380,16 @@
         <v>62</v>
       </c>
       <c r="D16" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3394,16 +3400,16 @@
         <v>66</v>
       </c>
       <c r="D17" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -3417,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -3437,13 +3443,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -3457,13 +3463,13 @@
         <v>-1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -3474,16 +3480,16 @@
         <v>82</v>
       </c>
       <c r="D21" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -3497,13 +3503,13 @@
         <v>-1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -3517,13 +3523,13 @@
         <v>-1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -3534,16 +3540,16 @@
         <v>94</v>
       </c>
       <c r="D24" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3554,7 +3560,7 @@
         <v>98</v>
       </c>
       <c r="D25" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>125</v>
